--- a/public/awards_excel/faculty_awards.xlsx
+++ b/public/awards_excel/faculty_awards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\s417\dept_website\public\awards_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3283C4-9B9F-453C-9C90-F8477536D746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD643F3-AB51-4505-89C6-EC52AADCBF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11295" xr2:uid="{A98D9B48-52A8-4388-A1DD-B923E07E30E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A98D9B48-52A8-4388-A1DD-B923E07E30E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -258,6 +258,15 @@
   </si>
   <si>
     <t>2019 May</t>
+  </si>
+  <si>
+    <t>Microscopy Australia</t>
+  </si>
+  <si>
+    <t>Travel Award from Microscopy Australia to attend the FoundingGIDE Imaging Data Ecosystem meeting in Brisbane, Australia, in October 2025,</t>
+  </si>
+  <si>
+    <t>2025 October</t>
   </si>
 </sst>
 </file>
@@ -630,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B64AE82-90EC-4614-82A4-9607BB0B4E51}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,41 +667,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2025</v>
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2024</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,10 +712,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,52 +723,49 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>2022</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>2023</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,13 +773,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10">
-        <v>2021</v>
+      <c r="D10" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,10 +787,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>2021</v>
@@ -792,66 +801,66 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>2019</v>
@@ -859,27 +868,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D17">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>2017</v>
@@ -890,10 +899,10 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>2017</v>
@@ -904,27 +913,27 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="D20">
+        <v>2017</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,13 +941,13 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -946,13 +955,13 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,13 +969,13 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24">
-        <v>2016</v>
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,55 +983,55 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D28">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1030,12 +1039,26 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
         <v>70</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>71</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>2015</v>
       </c>
     </row>
